--- a/angular/definitions/definitions.xlsx
+++ b/angular/definitions/definitions.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1581780470" val="973" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1581780470" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1581780470" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1581780470"/>
+      <pm:revision xmlns:pm="smNativeData" day="1581782304" val="973" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1581782304" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1581782304" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1581782304"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Udemy - Angular Crash Course for Busy Developers</t>
   </si>
@@ -58,6 +58,52 @@
   </si>
   <si>
     <t>we do this using npm</t>
+  </si>
+  <si>
+    <t>command to install angular globally</t>
+  </si>
+  <si>
+    <t>npm install -g @angular/cli</t>
+  </si>
+  <si>
+    <t>check angular cli version</t>
+  </si>
+  <si>
+    <t>ng --version</t>
+  </si>
+  <si>
+    <t>create new project using angular cli</t>
+  </si>
+  <si>
+    <t>ng new hello-world</t>
+  </si>
+  <si>
+    <t>run project</t>
+  </si>
+  <si>
+    <t>ng server</t>
+  </si>
+  <si>
+    <t>once we create angular project using angular cli</t>
+  </si>
+  <si>
+    <t>project/src/app/assets - all static files like images etc will go here</t>
+  </si>
+  <si>
+    <t>tslint</t>
+  </si>
+  <si>
+    <t>static source code analysis for javascript code</t>
+  </si>
+  <si>
+    <t>webpack</t>
+  </si>
+  <si>
+    <t>build automation tool - get all our scripts, style sheets - combines them, puts them in a bundle and then minifies that bundle</t>
+  </si>
+  <si>
+    <t>when any code changes, webpack automatically compiles the code. This feature is called 
+HMR - Hot Module Replacement (or) Hot Module Reloading</t>
   </si>
 </sst>
 </file>
@@ -82,7 +128,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1581780470" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1581782304" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -97,7 +143,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1581780470" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1581782304" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -113,7 +159,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1581780470" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1581782304" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -129,7 +175,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1581780470" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1581782304" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -151,7 +197,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1581780470" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1581782304" type="1" fgLvl="38" fgClr="00FFFF00" bgLvl="62" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -162,7 +208,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1581780470" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1581782304" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -184,7 +230,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1581780470"/>
+          <pm:border xmlns:pm="smNativeData" id="1581782304"/>
         </ext>
       </extLst>
     </border>
@@ -203,7 +249,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1581780470">
+          <pm:border xmlns:pm="smNativeData" id="1581782304">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -227,7 +273,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1581780470"/>
+          <pm:border xmlns:pm="smNativeData" id="1581782304"/>
         </ext>
       </extLst>
     </border>
@@ -258,10 +304,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1581780470" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1581782304" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1581780470" count="7">
+      <pm:colors xmlns:pm="smNativeData" id="1581782304" count="7">
         <pm:color name="Color 24" rgb="0066FF"/>
         <pm:color name="Color 25" rgb="494529"/>
         <pm:color name="Color 26" rgb="00B050"/>
@@ -531,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="15.40"/>
@@ -589,6 +635,67 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -596,7 +703,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1581780470" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1581782304" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -605,16 +712,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1581780470" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1581780470" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581780470" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1581780470" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1581782304" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1581782304" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581782304" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1581782304" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581780470" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1581782304" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
